--- a/extractor/pdf/Nike.xlsx
+++ b/extractor/pdf/Nike.xlsx
@@ -604,7 +604,7 @@
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="23" t="inlineStr">
         <is>
-          <t>may312018</t>
+          <t>may312016</t>
         </is>
       </c>
       <c r="D1" s="25" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="C3" s="26" t="n">
-        <v>36397000</v>
+        <v>32376000</v>
       </c>
       <c r="D3" s="26" t="n">
         <v>34350000</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C7" s="26" t="n">
-        <v>15956000</v>
+        <v>14971000</v>
       </c>
       <c r="D7" s="26" t="n">
         <v>15312000</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="C10" s="24" t="n">
-        <v>10803000</v>
+        <v>9667000</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>9651000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C11" s="21" t="n">
-        <v>4379000</v>
+        <v>4642000</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>4945000</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C13" s="24" t="n">
-        <v>774000</v>
+        <v>662000</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>716000</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C14" s="21" t="n">
-        <v>5153000</v>
+        <v>5304000</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>5661000</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C17" s="22" t="n">
-        <v>4379000</v>
+        <v>4642000</v>
       </c>
       <c r="D17" s="22" t="n">
         <v>4945000</v>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C18" s="24" t="n">
-        <v>54000</v>
+        <v>19000</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>59000</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>66000</v>
+        <v>-140000</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>-196000</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C20" s="21" t="n">
-        <v>4325000</v>
+        <v>4623000</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>4886000</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C21" s="22" t="n">
-        <v>2392000</v>
+        <v>863000</v>
       </c>
       <c r="D21" s="22" t="n">
         <v>646000</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C22" s="26" t="n">
-        <v>1933000</v>
+        <v>3760000</v>
       </c>
       <c r="D22" s="26" t="n">
         <v>4240000</v>

--- a/extractor/pdf/Nike.xlsx
+++ b/extractor/pdf/Nike.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="25" t="inlineStr">
         <is>
-          <t>may312017</t>
+          <t>may312018</t>
         </is>
       </c>
       <c r="E1" s="12">
@@ -646,7 +646,7 @@
         <v>32376000</v>
       </c>
       <c r="D3" s="26" t="n">
-        <v>34350000</v>
+        <v>36397000</v>
       </c>
       <c r="E3" s="9">
         <f>D3*(1+E26)</f>
@@ -712,7 +712,7 @@
         <v>14971000</v>
       </c>
       <c r="D7" s="26" t="n">
-        <v>15312000</v>
+        <v>15956000</v>
       </c>
       <c r="E7" s="18">
         <f>SUM(E3,E6)</f>
@@ -776,7 +776,7 @@
         <v>9667000</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>9651000</v>
+        <v>10803000</v>
       </c>
       <c r="E10" s="6">
         <f>E3*E28</f>
@@ -805,7 +805,7 @@
         <v>4642000</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>4945000</v>
+        <v>4379000</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(E7,E10)</f>
@@ -859,7 +859,7 @@
         <v>662000</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>716000</v>
+        <v>774000</v>
       </c>
       <c r="E13" s="6">
         <f>E3*E29</f>
@@ -888,7 +888,7 @@
         <v>5304000</v>
       </c>
       <c r="D14" s="21" t="n">
-        <v>5661000</v>
+        <v>5153000</v>
       </c>
       <c r="E14" s="10">
         <f>SUM(E11,E13)</f>
@@ -943,7 +943,7 @@
         <v>4642000</v>
       </c>
       <c r="D17" s="22" t="n">
-        <v>4945000</v>
+        <v>4379000</v>
       </c>
       <c r="E17" s="7">
         <f>E11</f>
@@ -972,7 +972,7 @@
         <v>19000</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>59000</v>
+        <v>54000</v>
       </c>
       <c r="E18" s="6">
         <f>E30</f>
@@ -1001,7 +1001,7 @@
         <v>-140000</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>-196000</v>
+        <v>66000</v>
       </c>
       <c r="E19" s="6">
         <f>E3*E31</f>
@@ -1030,7 +1030,7 @@
         <v>4623000</v>
       </c>
       <c r="D20" s="21" t="n">
-        <v>4886000</v>
+        <v>4325000</v>
       </c>
       <c r="E20" s="10">
         <f>SUM(E17:E19)</f>
@@ -1059,7 +1059,7 @@
         <v>863000</v>
       </c>
       <c r="D21" s="22" t="n">
-        <v>646000</v>
+        <v>2392000</v>
       </c>
       <c r="E21" s="6">
         <f>E32</f>
@@ -1088,7 +1088,7 @@
         <v>3760000</v>
       </c>
       <c r="D22" s="26" t="n">
-        <v>4240000</v>
+        <v>1933000</v>
       </c>
       <c r="E22" s="10">
         <f>SUM(E20:E21)</f>

--- a/extractor/pdf/Nike.xlsx
+++ b/extractor/pdf/Nike.xlsx
@@ -604,7 +604,7 @@
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="23" t="inlineStr">
         <is>
-          <t>may312016</t>
+          <t>may312017</t>
         </is>
       </c>
       <c r="D1" s="25" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="C3" s="26" t="n">
-        <v>32376000</v>
+        <v>34350000</v>
       </c>
       <c r="D3" s="26" t="n">
         <v>36397000</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C7" s="26" t="n">
-        <v>14971000</v>
+        <v>15312000</v>
       </c>
       <c r="D7" s="26" t="n">
         <v>15956000</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="C10" s="24" t="n">
-        <v>9667000</v>
+        <v>9651000</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>10803000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C11" s="21" t="n">
-        <v>4642000</v>
+        <v>4945000</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>4379000</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C13" s="24" t="n">
-        <v>662000</v>
+        <v>716000</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>774000</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C14" s="21" t="n">
-        <v>5304000</v>
+        <v>5661000</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>5153000</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C17" s="22" t="n">
-        <v>4642000</v>
+        <v>4945000</v>
       </c>
       <c r="D17" s="22" t="n">
         <v>4379000</v>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C18" s="24" t="n">
-        <v>19000</v>
+        <v>59000</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>54000</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>-140000</v>
+        <v>-196000</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>66000</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C20" s="21" t="n">
-        <v>4623000</v>
+        <v>4886000</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>4325000</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C21" s="22" t="n">
-        <v>863000</v>
+        <v>646000</v>
       </c>
       <c r="D21" s="22" t="n">
         <v>2392000</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C22" s="26" t="n">
-        <v>3760000</v>
+        <v>4240000</v>
       </c>
       <c r="D22" s="26" t="n">
         <v>1933000</v>
